--- a/biology/Mycologie/Rozites/Rozites.xlsx
+++ b/biology/Mycologie/Rozites/Rozites.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rozites P.Karst. 1879 est un ancien genre de champignons (Agaricacées) qui contenait essentiellement l'espèce Rozites caperatus, aujourd'hui Cortinarius caperatus.
 Le genre avait été nommé en hommage au mycologue français Ernest Roze.
